--- a/Loggs.xlsx
+++ b/Loggs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFCA940-AEF4-43D7-AC4C-06601C4BA1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E00B18-54D1-41D4-A708-0D30CF0B5951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2170" yWindow="460" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Questions Description  </t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/peak-index-in-a-mountain-array/description/ </t>
+  </si>
+  <si>
+    <t>Finding Pivot of Rotated Array / Find how many times the array had been rotated</t>
+  </si>
+  <si>
+    <t>By the Use of Binary Search Code / Same as Peak Index</t>
   </si>
 </sst>
 </file>
@@ -186,13 +192,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -474,44 +480,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="68.6328125" style="3" customWidth="1"/>
     <col min="2" max="2" width="48.54296875" style="3" customWidth="1"/>
     <col min="3" max="3" width="66.1796875" style="3" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -532,6 +538,14 @@
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Loggs.xlsx
+++ b/Loggs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E00B18-54D1-41D4-A708-0D30CF0B5951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE39F74F-E48F-4A6D-AB2D-0CF616BE0672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2170" yWindow="460" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Questions Description  </t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>By the Use of Binary Search Code / Same as Peak Index</t>
+  </si>
+  <si>
+    <t>Search In Sorted Rotated Array</t>
+  </si>
+  <si>
+    <t>Using Binary Search and pivot functions to solve it.</t>
   </si>
 </sst>
 </file>
@@ -480,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -548,6 +554,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>

--- a/Loggs.xlsx
+++ b/Loggs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE39F74F-E48F-4A6D-AB2D-0CF616BE0672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C92D7C1-BE39-4EF9-9CB4-6FAEBD386C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2170" yWindow="460" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Questions Description  </t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Using Binary Search and pivot functions to solve it.</t>
+  </si>
+  <si>
+    <t>Square Root Using Binary Search</t>
+  </si>
+  <si>
+    <t>int variable bnaya while loop m sqrt or phir us sa compare</t>
   </si>
 </sst>
 </file>
@@ -486,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -562,6 +568,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>

--- a/Loggs.xlsx
+++ b/Loggs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C92D7C1-BE39-4EF9-9CB4-6FAEBD386C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1B880E-205A-47DE-B42A-E3D0B45C6207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2170" yWindow="460" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2170" yWindow="460" windowWidth="16700" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Questions Description  </t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>int variable bnaya while loop m sqrt or phir us sa compare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geeksforgeeks.org/problems/square-root/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article </t>
   </si>
 </sst>
 </file>
@@ -494,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -568,12 +571,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -584,8 +590,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{6ED5EDD3-FF64-47BF-80C3-1502554BD570}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{386DCE39-DF9D-4BC4-B0B0-CD4A98A5833E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Loggs.xlsx
+++ b/Loggs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1B880E-205A-47DE-B42A-E3D0B45C6207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB83DBF-7DEE-4856-8641-69CF3108C510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2170" yWindow="460" windowWidth="16700" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Questions Description  </t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.geeksforgeeks.org/problems/square-root/1?itm_source=geeksforgeeks&amp;itm_medium=article&amp;itm_campaign=bottom_sticky_on_article </t>
+  </si>
+  <si>
+    <t>Book Allocation Problem ( each std can get at least one book )</t>
+  </si>
+  <si>
+    <t>Using Binary Search with helping function Ispossible Solution</t>
   </si>
 </sst>
 </file>
@@ -495,16 +501,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="68.6328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="66.1796875" style="3" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -580,6 +586,14 @@
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Loggs.xlsx
+++ b/Loggs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB83DBF-7DEE-4856-8641-69CF3108C510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DC4E6D-B6CC-4B26-A406-64EF95726C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2170" yWindow="460" windowWidth="16700" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Questions Description  </t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Using Binary Search with helping function Ispossible Solution</t>
+  </si>
+  <si>
+    <t>Three Divisors</t>
+  </si>
+  <si>
+    <t>Broute Force Technique</t>
   </si>
 </sst>
 </file>
@@ -501,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -594,6 +600,14 @@
       </c>
       <c r="B9" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
